--- a/biology/Zoologie/Amorpha_juglandis/Amorpha_juglandis.xlsx
+++ b/biology/Zoologie/Amorpha_juglandis/Amorpha_juglandis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amorpha juglandis est la seule espèce du genre monotypique de lépidoptères Amorpha. Elle appartient à la famille des Sphingidae, à la sous-famille des Smerinthinae et à la tribu des Smerinthini.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique du Nord de l'océan Atlantique aux montagnes Rocheuses; au Canada et aux États-Unis.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 45 à 75 mm.
 			Avers du mâle(coll.MHNT)
@@ -577,10 +593,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les papillons volent la nuit et viennent à la lumière. Ils ne semblent pas trop attirés par les fleurs, ayant une spiritrompe assez courte ou réduite. Les femelles pondent leurs œufs sur des plantes de la famille des Boraginaceae.
-La chenille se nourrit d'espèces d'aulne (Alnus), d'hickory (Carya), de noisetier (Corylus), de hêtre ( Fagus ), de noyer ( Juglans ) et de houblon ( Ostrya )[1]. Lorsqu'elle est attaquée par un oiseau, la chenille produit un sifflement aigu en expulsant l'air d'une paire de spirales dans son abdomen. Cette adaptation anti-prédateur peut surprendre l'oiseau, qui peut alors rejeter la chenille.
+La chenille se nourrit d'espèces d'aulne (Alnus), d'hickory (Carya), de noisetier (Corylus), de hêtre ( Fagus ), de noyer ( Juglans ) et de houblon ( Ostrya ). Lorsqu'elle est attaquée par un oiseau, la chenille produit un sifflement aigu en expulsant l'air d'une paire de spirales dans son abdomen. Cette adaptation anti-prédateur peut surprendre l'oiseau, qui peut alors rejeter la chenille.
 </t>
         </is>
       </c>
@@ -609,25 +627,62 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Amorpha juglandis a été décrite en 1797 par le naturaliste anglais James Edward Smith sous le nom initial de Sphinx juglandis[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Amorpha juglandis a été décrite en 1797 par le naturaliste anglais James Edward Smith sous le nom initial de Sphinx juglandis.
 La localité type est l'État de Géorgie.
-Le genre Amorpha a été décrit par l’entomologiste allemand Jakob Hübner en 1810[3].
+Le genre Amorpha a été décrit par l’entomologiste allemand Jakob Hübner en 1810.
 Le nom Amorpha désigne aussi un genre végétal de la famille des Fabaceae.
-Synonymie
-Pour le genre
-Cressonia Grote &amp; Robinson, 1865[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amorpha_juglandis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amorpha_juglandis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour le genre
+Cressonia Grote &amp; Robinson, 1865
 Pour l'espèce
 Sphinx juglandis J.E. Smith, 1797 protonyme
 Cressonia juglandis
 Laothoe juglandis
-Sphinx instibilis Martyn, 1797[5]
-Smerinthus pallens Strecker, 1873[6]
-Cressonia robinsonii Butler, 1876[7]
-Cressonia hyperbola Slosson, 1890[8]
-Cressonia juglandis alpina Clark, 1927[9]
-Cressonia juglandis manitobae Clark, 1930[10]</t>
+Sphinx instibilis Martyn, 1797
+Smerinthus pallens Strecker, 1873
+Cressonia robinsonii Butler, 1876
+Cressonia hyperbola Slosson, 1890
+Cressonia juglandis alpina Clark, 1927
+Cressonia juglandis manitobae Clark, 1930</t>
         </is>
       </c>
     </row>
